--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N2">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O2">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P2">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q2">
-        <v>21.121979939604</v>
+        <v>30.103096923514</v>
       </c>
       <c r="R2">
-        <v>190.097819456436</v>
+        <v>270.927872311626</v>
       </c>
       <c r="S2">
-        <v>0.01399073671088172</v>
+        <v>0.02021014970071825</v>
       </c>
       <c r="T2">
-        <v>0.01399073671088172</v>
+        <v>0.02021014970071825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>74.707763</v>
       </c>
       <c r="O3">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P3">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q3">
-        <v>970.4415892968678</v>
+        <v>945.8694008624999</v>
       </c>
       <c r="R3">
-        <v>8733.974303671812</v>
+        <v>8512.824607762501</v>
       </c>
       <c r="S3">
-        <v>0.6427992455236013</v>
+        <v>0.635023108663211</v>
       </c>
       <c r="T3">
-        <v>0.642799245523601</v>
+        <v>0.6350231086632111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N4">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O4">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P4">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q4">
-        <v>0.6748219801999999</v>
+        <v>3.804316827997666</v>
       </c>
       <c r="R4">
-        <v>6.0733978218</v>
+        <v>34.238851451979</v>
       </c>
       <c r="S4">
-        <v>0.0004469872937428349</v>
+        <v>0.002554083149589095</v>
       </c>
       <c r="T4">
-        <v>0.0004469872937428347</v>
+        <v>0.002554083149589095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H5">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I5">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J5">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N5">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O5">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P5">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q5">
-        <v>46.82538410755599</v>
+        <v>58.39307338965444</v>
       </c>
       <c r="R5">
-        <v>421.428456968004</v>
+        <v>525.53766050689</v>
       </c>
       <c r="S5">
-        <v>0.03101610844759677</v>
+        <v>0.03920303474716992</v>
       </c>
       <c r="T5">
-        <v>0.03101610844759676</v>
+        <v>0.03920303474716993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H6">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I6">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J6">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N6">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O6">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P6">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q6">
-        <v>0.725508320272</v>
+        <v>1.281374258965444</v>
       </c>
       <c r="R6">
-        <v>6.529574882448</v>
+        <v>11.532368330689</v>
       </c>
       <c r="S6">
-        <v>0.0004805608148243467</v>
+        <v>0.0008602691497867177</v>
       </c>
       <c r="T6">
-        <v>0.0004805608148243466</v>
+        <v>0.0008602691497867177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N7">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O7">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P7">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q7">
-        <v>5.249791755161</v>
+        <v>7.676386832762002</v>
       </c>
       <c r="R7">
-        <v>47.248125796449</v>
+        <v>69.08748149485801</v>
       </c>
       <c r="S7">
-        <v>0.003477347031075355</v>
+        <v>0.005153653374764889</v>
       </c>
       <c r="T7">
-        <v>0.003477347031075355</v>
+        <v>0.005153653374764889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>74.707763</v>
       </c>
       <c r="O8">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P8">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q8">
         <v>241.1997487415259</v>
@@ -948,10 +948,10 @@
         <v>2170.797738673733</v>
       </c>
       <c r="S8">
-        <v>0.1597654286682738</v>
+        <v>0.1619329413922916</v>
       </c>
       <c r="T8">
-        <v>0.1597654286682738</v>
+        <v>0.1619329413922916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N9">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O9">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P9">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q9">
-        <v>0.1677245636055556</v>
+        <v>0.9701130644563334</v>
       </c>
       <c r="R9">
-        <v>1.50952107245</v>
+        <v>8.731017580107</v>
       </c>
       <c r="S9">
-        <v>0.0001110970759399773</v>
+        <v>0.0006512994430141298</v>
       </c>
       <c r="T9">
-        <v>0.0001110970759399773</v>
+        <v>0.0006512994430141298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>29.057191</v>
       </c>
       <c r="I10">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J10">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N10">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O10">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P10">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q10">
-        <v>11.63827993980678</v>
+        <v>14.89042209948556</v>
       </c>
       <c r="R10">
-        <v>104.744519458261</v>
+        <v>134.01379889537</v>
       </c>
       <c r="S10">
-        <v>0.007708941627203615</v>
+        <v>0.009996900335606976</v>
       </c>
       <c r="T10">
-        <v>0.007708941627203613</v>
+        <v>0.009996900335606978</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>29.057191</v>
       </c>
       <c r="I11">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J11">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N11">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O11">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P11">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q11">
-        <v>0.1803224701924445</v>
+        <v>0.3267545699485556</v>
       </c>
       <c r="R11">
-        <v>1.622902231732</v>
+        <v>2.940791129537001</v>
       </c>
       <c r="S11">
-        <v>0.0001194416532319463</v>
+        <v>0.000219371408557497</v>
       </c>
       <c r="T11">
-        <v>0.0001194416532319463</v>
+        <v>0.000219371408557497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H12">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N12">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O12">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P12">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q12">
-        <v>0.32887361459</v>
+        <v>0.449897719088</v>
       </c>
       <c r="R12">
-        <v>2.95986253131</v>
+        <v>4.049079471792</v>
       </c>
       <c r="S12">
-        <v>0.0002178386763949812</v>
+        <v>0.0003020453435698794</v>
       </c>
       <c r="T12">
-        <v>0.0002178386763949811</v>
+        <v>0.0003020453435698794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H13">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>74.707763</v>
       </c>
       <c r="O13">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P13">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q13">
-        <v>15.10997710125222</v>
+        <v>14.13623611831022</v>
       </c>
       <c r="R13">
-        <v>135.98979391127</v>
+        <v>127.226125064792</v>
       </c>
       <c r="S13">
-        <v>0.01000851775901436</v>
+        <v>0.009490566664341721</v>
       </c>
       <c r="T13">
-        <v>0.01000851775901435</v>
+        <v>0.009490566664341723</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H14">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I14">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J14">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N14">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O14">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P14">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q14">
-        <v>0.01050711838888889</v>
+        <v>0.05685639148533332</v>
       </c>
       <c r="R14">
-        <v>0.0945640655</v>
+        <v>0.511707523368</v>
       </c>
       <c r="S14">
-        <v>6.959685000617619E-06</v>
+        <v>3.817136111546276E-05</v>
       </c>
       <c r="T14">
-        <v>6.959685000617618E-06</v>
+        <v>3.817136111546276E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H15">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I15">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J15">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N15">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O15">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P15">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q15">
-        <v>0.7290809559544443</v>
+        <v>0.8726979352088887</v>
       </c>
       <c r="R15">
-        <v>6.561728603589999</v>
+        <v>7.854281416879999</v>
       </c>
       <c r="S15">
-        <v>0.0004829272504208156</v>
+        <v>0.0005858983864315483</v>
       </c>
       <c r="T15">
-        <v>0.0004829272504208154</v>
+        <v>0.0005858983864315484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H16">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I16">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J16">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N16">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O16">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P16">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q16">
-        <v>0.01129631523111111</v>
+        <v>0.01915043352088889</v>
       </c>
       <c r="R16">
-        <v>0.10166683708</v>
+        <v>0.172353901688</v>
       </c>
       <c r="S16">
-        <v>7.482431696910399E-06</v>
+        <v>1.285692064421783E-05</v>
       </c>
       <c r="T16">
-        <v>7.482431696910396E-06</v>
+        <v>1.285692064421783E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H17">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I17">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J17">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N17">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O17">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P17">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q17">
-        <v>3.707716350333</v>
+        <v>4.615070914052001</v>
       </c>
       <c r="R17">
-        <v>33.369447152997</v>
+        <v>41.535638226468</v>
       </c>
       <c r="S17">
-        <v>0.002455910071142357</v>
+        <v>0.003098394636585245</v>
       </c>
       <c r="T17">
-        <v>0.002455910071142356</v>
+        <v>0.003098394636585244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H18">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I18">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J18">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>74.707763</v>
       </c>
       <c r="O18">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P18">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q18">
-        <v>170.3496621986943</v>
+        <v>145.0101420296909</v>
       </c>
       <c r="R18">
-        <v>1533.146959788249</v>
+        <v>1305.091278267218</v>
       </c>
       <c r="S18">
-        <v>0.1128358837298591</v>
+        <v>0.09735465709686737</v>
       </c>
       <c r="T18">
-        <v>0.112835883729859</v>
+        <v>0.09735465709686737</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H19">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I19">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J19">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N19">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O19">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P19">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q19">
-        <v>0.1184570999833334</v>
+        <v>0.5832354054913333</v>
       </c>
       <c r="R19">
-        <v>1.06611389985</v>
+        <v>5.249118649422</v>
       </c>
       <c r="S19">
-        <v>7.846338752997036E-05</v>
+        <v>0.0003915635286857059</v>
       </c>
       <c r="T19">
-        <v>7.846338752997032E-05</v>
+        <v>0.0003915635286857058</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H20">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I20">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J20">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N20">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O20">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P20">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q20">
-        <v>8.219648099403665</v>
+        <v>8.952174431335557</v>
       </c>
       <c r="R20">
-        <v>73.97683289463299</v>
+        <v>80.56956988202001</v>
       </c>
       <c r="S20">
-        <v>0.005444514801343574</v>
+        <v>0.006010171839260521</v>
       </c>
       <c r="T20">
-        <v>0.005444514801343572</v>
+        <v>0.006010171839260521</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H21">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I21">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J21">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N21">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O21">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P21">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q21">
-        <v>0.1273544937106667</v>
+        <v>0.1964460031335556</v>
       </c>
       <c r="R21">
-        <v>1.146190443396</v>
+        <v>1.768014028202</v>
       </c>
       <c r="S21">
-        <v>8.43568261852532E-05</v>
+        <v>0.0001318868667075824</v>
       </c>
       <c r="T21">
-        <v>8.435682618525318E-05</v>
+        <v>0.0001318868667075824</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H22">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I22">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J22">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.542013</v>
+        <v>0.7925460000000001</v>
       </c>
       <c r="N22">
-        <v>1.626039</v>
+        <v>2.377638</v>
       </c>
       <c r="O22">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="P22">
-        <v>0.02031371189513579</v>
+        <v>0.02896056603749454</v>
       </c>
       <c r="Q22">
-        <v>0.259488362408</v>
+        <v>0.292423848346</v>
       </c>
       <c r="R22">
-        <v>2.335395261672</v>
+        <v>2.631814635114</v>
       </c>
       <c r="S22">
-        <v>0.0001718794056413752</v>
+        <v>0.0001963229818562771</v>
       </c>
       <c r="T22">
-        <v>0.0001718794056413752</v>
+        <v>0.0001963229818562771</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H23">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I23">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J23">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>74.707763</v>
       </c>
       <c r="O23">
-        <v>0.9333060116713593</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="P23">
-        <v>0.9333060116713591</v>
+        <v>0.9099699381802406</v>
       </c>
       <c r="Q23">
-        <v>11.92209724369155</v>
+        <v>9.18824966533211</v>
       </c>
       <c r="R23">
-        <v>107.298875193224</v>
+        <v>82.694246987989</v>
       </c>
       <c r="S23">
-        <v>0.007896935990610756</v>
+        <v>0.006168664363528868</v>
       </c>
       <c r="T23">
-        <v>0.007896935990610754</v>
+        <v>0.006168664363528868</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H24">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I24">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J24">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.01731666666666667</v>
+        <v>0.100159</v>
       </c>
       <c r="N24">
-        <v>0.05195</v>
+        <v>0.300477</v>
       </c>
       <c r="O24">
-        <v>0.0006489987835176797</v>
+        <v>0.003659928046762479</v>
       </c>
       <c r="P24">
-        <v>0.0006489987835176796</v>
+        <v>0.003659928046762478</v>
       </c>
       <c r="Q24">
-        <v>0.008290342622222223</v>
+        <v>0.03695543252566667</v>
       </c>
       <c r="R24">
-        <v>0.0746130836</v>
+        <v>0.332598892731</v>
       </c>
       <c r="S24">
-        <v>5.491341304279567E-06</v>
+        <v>2.481056435808503E-05</v>
       </c>
       <c r="T24">
-        <v>5.491341304279566E-06</v>
+        <v>2.481056435808503E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H25">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I25">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J25">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.201590333333333</v>
+        <v>1.537356666666667</v>
       </c>
       <c r="N25">
-        <v>3.604771</v>
+        <v>4.61207</v>
       </c>
       <c r="O25">
-        <v>0.04503353212434666</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="P25">
-        <v>0.04503353212434665</v>
+        <v>0.05617682666770443</v>
       </c>
       <c r="Q25">
-        <v>0.575260571023111</v>
+        <v>0.5672349021344444</v>
       </c>
       <c r="R25">
-        <v>5.177345139207999</v>
+        <v>5.10511411921</v>
       </c>
       <c r="S25">
-        <v>0.0003810399977818893</v>
+        <v>0.0003808213592354597</v>
       </c>
       <c r="T25">
-        <v>0.0003810399977818893</v>
+        <v>0.0003808213592354598</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H26">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I26">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J26">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.01861733333333333</v>
+        <v>0.03373566666666667</v>
       </c>
       <c r="N26">
-        <v>0.055852</v>
+        <v>0.101207</v>
       </c>
       <c r="O26">
-        <v>0.0006977455256406052</v>
+        <v>0.001232741067797836</v>
       </c>
       <c r="P26">
-        <v>0.0006977455256406051</v>
+        <v>0.001232741067797835</v>
       </c>
       <c r="Q26">
-        <v>0.008913035921777777</v>
+        <v>0.01244737021344445</v>
       </c>
       <c r="R26">
-        <v>0.080217323296</v>
+        <v>0.112026331921</v>
       </c>
       <c r="S26">
-        <v>5.903799702148649E-06</v>
+        <v>8.35672210182048E-06</v>
       </c>
       <c r="T26">
-        <v>5.903799702148648E-06</v>
+        <v>8.35672210182048E-06</v>
       </c>
     </row>
   </sheetData>
